--- a/CSharpProject/CSharpProject/DAO/Excel/Demo.xlsx
+++ b/CSharpProject/CSharpProject/DAO/Excel/Demo.xlsx
@@ -5,14 +5,14 @@
   <sheets>
     <sheet state="visible" name="demodata" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="HocSinh" sheetId="2" r:id="rId5"/>
+    <sheet name="Lớp 10A2" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Dữ liệu 1</t>
   </si>
@@ -57,15 +57,421 @@
   </si>
   <si>
     <t>Nữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã học sinh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Họ tên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410231 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồ Văn Khải </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">560038 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Phúc Khải </t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410237 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Khang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410240 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Đoàn Khang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410242 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dương Minh Khánh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#REF! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">560041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Quốc Khánh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">560043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Anh Khoa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">560044 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Đăng Khoa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">560047 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Quang Đăng Khoa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410252 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Nguyễn Đăng Khôi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410253 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hữu Minh Khôi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410292 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Vủ Quốc Lâm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">92 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410290 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trịnh Quang Long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đoàn Thành Lợi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">560059 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vòng Cỏng Mềnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410332 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Thị My </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đinh Tuấn Nam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410336 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Giang Nam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410338 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Sĩ Nam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410340 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Kim Ngân </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410339 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngô Lê Huệ Ngân </t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410344 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huỳnh Trọng Nghĩa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Anh Nghĩa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">560065 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Kiên Nghĩa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đào Phúc Nguyên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huỳnh Trọng Nguyên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410352 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Trung Nguyên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410353 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hoàng Khôi Nguyên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410354 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Trần Trọng Nguyên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410361 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thụy Ái Nhân </t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">560070 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Phan Huỳnh Như </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410376 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lý Thanh Phát </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">560072 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huỳnh Khả Phi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">560073 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Sỹ Phú </t>
+  </si>
+  <si>
+    <t xml:space="preserve">73 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410401 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Mạnh Phú </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -85,32 +491,26 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" applyFont="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -312,6 +712,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -378,7 +779,7 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -387,6 +788,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +817,544 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
 </worksheet>
 </file>